--- a/ExcelToolsTests/TestFiles/ColumnSplitter/column_split_input.xlsx
+++ b/ExcelToolsTests/TestFiles/ColumnSplitter/column_split_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelToolsGit\ExcelToolsApp\bin\Debug\net7.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelToolsGit\ExcelToolsTests\TestFiles\ColumnSplitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACDD07-9DEE-44F4-986B-2215ECEDF475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613EE0B-9126-4BFE-B818-04400B4C65D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2424" windowWidth="17280" windowHeight="8880" tabRatio="205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K96"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -475,237 +475,237 @@
     <col min="7" max="1024" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G7">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>6548</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
       <c r="G12">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12">
         <v>5486</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
